--- a/data/income_statement/2digits/size/29_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/29_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>29-Manufacture of motor vehicles, trailers and semi-trailers</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>29-Manufacture of motor vehicles, trailers and semi-trailers</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,878 +841,993 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2352067.3066</v>
+        <v>2336031.37437</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3212306.2396</v>
+        <v>3274417.7027</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4069262.29685</v>
+        <v>4144900.10453</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4490138.36025</v>
+        <v>4496232.1137</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4938252.80745</v>
+        <v>5247195.769269999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5966588.04675</v>
+        <v>6202410.544829999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6847149.94094</v>
+        <v>7243016.12806</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6928438.835510001</v>
+        <v>7346776.45945</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>7863976.46192</v>
+        <v>7869889.0054</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>13428806.58911</v>
+        <v>13818195.90123</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>15514956.36979</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15633766.97158</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>18300268.18</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1732109.00771</v>
+        <v>1719094.73553</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2422749.78945</v>
+        <v>2421120.09817</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3165722.60113</v>
+        <v>3186624.106</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3432177.02</v>
+        <v>3432190.1308</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3698220.94018</v>
+        <v>3887331.99727</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4462421.91601</v>
+        <v>4621238.648100001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5358352.89543</v>
+        <v>5654152.89454</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5282820.11716</v>
+        <v>5585586.77221</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6130658.812600001</v>
+        <v>6060660.26971</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9714303.795080001</v>
+        <v>9842194.07989</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10728263.60267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10651795.32065</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>13146483.354</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>578093.77535</v>
+        <v>580471.9582299999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>746016.55325</v>
+        <v>812449.10979</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>853193.07877</v>
+        <v>904919.3171200001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>941135.8683999999</v>
+        <v>948455.4050799999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1167024.86495</v>
+        <v>1281172.53668</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1427107.98238</v>
+        <v>1509347.36748</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1413167.84897</v>
+        <v>1503058.16936</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1540973.26384</v>
+        <v>1656048.19471</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1646501.95154</v>
+        <v>1729241.88669</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3517201.79961</v>
+        <v>3772156.09106</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4579229.05533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4753781.13428</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4885585.192</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>41864.52354000001</v>
+        <v>36464.68061</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>43539.89690000001</v>
+        <v>40848.49474</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>50346.61695</v>
+        <v>53356.68141</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>116825.47185</v>
+        <v>115586.57782</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>73007.00232</v>
+        <v>78691.23532000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>77058.14836000001</v>
+        <v>71824.52924999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>75629.19653999999</v>
+        <v>85805.06416000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>104645.45451</v>
+        <v>105141.49253</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>86815.69778</v>
+        <v>79986.849</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>197300.99442</v>
+        <v>203845.73028</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>207463.71179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>228190.51665</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>268199.634</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>62730.10121</v>
+        <v>66005.23504</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>63732.5958</v>
+        <v>65389.03688</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>83379.89057999999</v>
+        <v>85094.57558999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>101354.32539</v>
+        <v>101608.38964</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>105067.2032</v>
+        <v>102213.99955</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>116816.16399</v>
+        <v>120468.80767</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>150192.76786</v>
+        <v>154232.78795</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>144557.95399</v>
+        <v>177486.80219</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>157105.0455</v>
+        <v>159531.64204</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>266042.11211</v>
+        <v>266144.22424</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>331313.51422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>328686.1000800001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>344955.717</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>24410.95894</v>
+        <v>25626.11357</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>26293.9068</v>
+        <v>27247.90632</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>35069.53915</v>
+        <v>33450.34893</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>40796.26514</v>
+        <v>40774.45768</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>44969.927</v>
+        <v>40276.32709000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>54250.45372</v>
+        <v>54300.05237999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>69434.67305</v>
+        <v>72349.13424</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>78747.80023000001</v>
+        <v>104958.48408</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>83045.77460999999</v>
+        <v>85328.87288</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>156464.4295</v>
+        <v>156327.11592</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>222322.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>217096.36316</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>223975.81</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>25963.98598</v>
+        <v>27680.22225</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>28086.24745</v>
+        <v>28727.01266</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>41611.78464</v>
+        <v>44982.89783</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>50797.03411</v>
+        <v>51139.42599</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>51616.61021</v>
+        <v>52747.27295999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>48646.16213999999</v>
+        <v>51328.04903</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>67850.1425</v>
+        <v>68096.19592</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>50858.51530000001</v>
+        <v>55659.63991</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>57511.94978</v>
+        <v>58299.33778</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>66357.72663999999</v>
+        <v>66691.92724999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>69668.99541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>69287.71987</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>78175.15399999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>12355.15629</v>
+        <v>12698.89922</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>9352.44155</v>
+        <v>9414.117899999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>6698.566790000001</v>
+        <v>6661.32883</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>9761.02614</v>
+        <v>9694.505969999998</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>8480.66599</v>
+        <v>9190.3995</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>13919.54813</v>
+        <v>14840.70626</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>12907.95231</v>
+        <v>13787.45779</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>14951.63846</v>
+        <v>16868.6782</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>16547.32111</v>
+        <v>15903.43138</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>43219.95597</v>
+        <v>43125.18107</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>39322.30881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>42302.01705</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>42804.753</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2289337.20539</v>
+        <v>2270026.13933</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3148573.6438</v>
+        <v>3209028.66582</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3985882.40627</v>
+        <v>4059805.52894</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4388784.03486</v>
+        <v>4394623.72406</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4833185.60425</v>
+        <v>5144981.76972</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5849771.88276</v>
+        <v>6081941.737159999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6696957.17308</v>
+        <v>7088783.34011</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6783880.881519999</v>
+        <v>7169289.65726</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>7706871.41642</v>
+        <v>7710357.363360001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>13162764.477</v>
+        <v>13552051.67699</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>15183642.85557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15305080.8715</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>17955312.463</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1919820.54386</v>
+        <v>1897092.44581</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2618611.81084</v>
+        <v>2676661.56365</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3322337.758609999</v>
+        <v>3376276.30194</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3686784.612</v>
+        <v>3694155.65664</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3965730.77338</v>
+        <v>4229147.82979</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4839895.541940001</v>
+        <v>5012123.743690001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5539470.20354</v>
+        <v>5867777.580150001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5630202.45779</v>
+        <v>5925737.36999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>6353074.13472</v>
+        <v>6340623.5507</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10591137.14716</v>
+        <v>10906143.37907</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12312540.09525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12391757.75081</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>14375994.882</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1678588.36311</v>
+        <v>1649095.20913</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2304087.27836</v>
+        <v>2357279.82512</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2888520.46193</v>
+        <v>2957360.91339</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3180302.95193</v>
+        <v>3212329.39161</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3542171.86483</v>
+        <v>3768137.92642</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4182515.04367</v>
+        <v>4354885.42132</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4712437.785449999</v>
+        <v>5035434.91263</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4748789.02107</v>
+        <v>5054226.043570001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5257915.18626</v>
+        <v>5294620.77106</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>9217039.839670001</v>
+        <v>9499988.64766</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10474131.43569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10621334.63679</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>12187054.296</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>216254.59573</v>
+        <v>222799.82045</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>290808.9850800001</v>
+        <v>280673.09792</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>390024.25704</v>
+        <v>380731.19289</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>419828.2360600001</v>
+        <v>406950.49542</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>387306.20739</v>
+        <v>421880.47876</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>585250.49037</v>
+        <v>575670.99083</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>729116.28584</v>
+        <v>735040.29443</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>770826.06247</v>
+        <v>762004.54837</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>921088.4876500001</v>
+        <v>886898.9628099999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1126698.0136</v>
+        <v>1160325.19129</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1451474.57625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1395175.25478</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1813258.68</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>16640.70525</v>
+        <v>16200.58472</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>17355.18052</v>
+        <v>16355.87557</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>35451.90328</v>
+        <v>28813.99954</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>28749.03074</v>
+        <v>21789.16363</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>22569.3291</v>
+        <v>21000.91756</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>57094.92047</v>
+        <v>64437.60457</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>85000.51099</v>
+        <v>83032.87585</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>85409.01274999999</v>
+        <v>83917.08531000001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>158811.38415</v>
+        <v>145624.9696</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>204844.27361</v>
+        <v>202567.27868</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>290161.2974</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>277076.5539899999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>295125.376</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>8336.87977</v>
+        <v>8996.83151</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6360.36688</v>
+        <v>22352.76504</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>8341.136359999999</v>
+        <v>9370.196120000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>57904.39327</v>
+        <v>53086.60598</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>13683.37206</v>
+        <v>18128.50705</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>15035.08743</v>
+        <v>17129.72697</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>12915.62126</v>
+        <v>14269.49724</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>25178.3615</v>
+        <v>25589.69274</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>15259.07666</v>
+        <v>13478.84723</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>42555.02028</v>
+        <v>43262.26143999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>96772.78590999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>98171.30525</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>80556.53</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>369516.66153</v>
+        <v>372933.69352</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>529961.83296</v>
+        <v>532367.10217</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>663544.64766</v>
+        <v>683529.227</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>701999.42286</v>
+        <v>700468.0674200001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>867454.8308700002</v>
+        <v>915833.93993</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1009876.34082</v>
+        <v>1069817.99347</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1157486.96954</v>
+        <v>1221005.75996</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1153678.42373</v>
+        <v>1243552.28727</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1353797.2817</v>
+        <v>1369733.81266</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2571627.32984</v>
+        <v>2645908.29792</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2871102.76032</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2913323.12069</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3579317.581</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>277977.92133</v>
+        <v>263349.26596</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>340649.37725</v>
+        <v>334864.5159699999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>366491.64751</v>
+        <v>372430.94868</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>428685.29074</v>
+        <v>441509.2176500001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>495633.29032</v>
+        <v>537498.07859</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>571014.3356</v>
+        <v>594834.36487</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>625679.45861</v>
+        <v>673767.75665</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>656592.4814299999</v>
+        <v>723211.6863299999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>689327.84078</v>
+        <v>678227.5373500001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1117938.17732</v>
+        <v>1113093.28315</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1353464.6349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1409711.79682</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1506469.518</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>6679.01384</v>
+        <v>6156.44525</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>8674.5046</v>
+        <v>8165.27991</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>7812.20137</v>
+        <v>9537.340340000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>10154.24658</v>
+        <v>10812.3054</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>12274.71058</v>
+        <v>12867.85106</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>14772.59511</v>
+        <v>15173.29753</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>13849.11568</v>
+        <v>14125.13112</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>9330.27593</v>
+        <v>11384.43286</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>6748.80471</v>
+        <v>7779.57439</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>21683.37868</v>
+        <v>22505.27008</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>28237.0195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>29384.66605</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>39650.463</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>70542.88773999999</v>
+        <v>71024.14610000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>96799.05571000002</v>
+        <v>97009.59892</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>110028.98406</v>
+        <v>112111.36553</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>130203.71103</v>
+        <v>130239.2719</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>152471.27846</v>
+        <v>165036.25394</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>171258.3469</v>
+        <v>182606.84166</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>194818.55528</v>
+        <v>207441.08633</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>185131.86718</v>
+        <v>207562.68397</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>201529.06533</v>
+        <v>205048.50116</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>353244.03926</v>
+        <v>365572.0671899999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>429911.72941</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>433396.93259</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>456229.39</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>200756.01975</v>
+        <v>186168.67461</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>235175.81694</v>
+        <v>229689.63714</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>248650.46208</v>
+        <v>250782.24281</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>288327.33313</v>
+        <v>300457.64035</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>330887.30128</v>
+        <v>359593.97359</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>384983.39359</v>
+        <v>397054.22568</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>417011.78765</v>
+        <v>452201.5392</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>462130.33832</v>
+        <v>504264.5695</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>481049.97074</v>
+        <v>465399.4618</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>743010.7593799999</v>
+        <v>725015.94588</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>895315.88599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>946930.1981800001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1010589.665</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>91538.7402</v>
+        <v>109584.42756</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>189312.45571</v>
+        <v>197502.5862</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>297053.00015</v>
+        <v>311098.27832</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>273314.13212</v>
+        <v>258958.84977</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>371821.54055</v>
+        <v>378335.8613399999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>438862.0052200001</v>
+        <v>474983.6286</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>531807.51093</v>
+        <v>547238.0033100001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>497085.9423</v>
+        <v>520340.60094</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>664469.44092</v>
+        <v>691506.2753099999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1453689.15252</v>
+        <v>1532815.01477</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1517638.12542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1503611.32387</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2072848.063</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>105174.68921</v>
+        <v>91186.09481000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>100804.84306</v>
+        <v>110427.41798</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>90572.94109000001</v>
+        <v>94887.23926</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>80686.78104999999</v>
+        <v>82838.72050999998</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>147805.85286</v>
+        <v>161358.77989</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>167259.63916</v>
+        <v>184371.91369</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>252728.86414</v>
+        <v>327076.23162</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>232792.47673</v>
+        <v>277134.48089</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>275100.74566</v>
+        <v>283208.20407</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1397767.59162</v>
+        <v>1442880.2031</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>892351.53254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>919834.76638</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1483902.936</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2128.67091</v>
+        <v>1527.71789</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2310.96133</v>
+        <v>1348.5355</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>5e-05</v>
+        <v>175.27025</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>63.74632</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>4876.81512</v>
+        <v>3259.46252</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>8056.48875</v>
+        <v>7613.391019999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1268.32632</v>
+        <v>7013.01566</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>414.359</v>
+        <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>7350.3544</v>
+        <v>6669.52441</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>13003.82667</v>
+        <v>14771.46885</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>347.72268</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>290.525</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0.69036</v>
+        <v>51.69036</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>551.2059499999999</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
@@ -1820,226 +1836,256 @@
         <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>69.61986999999999</v>
+        <v>564.61987</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>4626.09616</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1805.41</v>
+        <v>54.091</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>5110.37026</v>
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>1545.66941</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>8032.75516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>7814.02306</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1207.454</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>8742.964310000001</v>
+        <v>7940.15805</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>7208.63579</v>
+        <v>6365.5397</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7263.692279999999</v>
+        <v>7177.2041</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>10307.93797</v>
+        <v>8980.066779999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>14551.6329</v>
+        <v>13938.30985</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>17287.59482</v>
+        <v>17038.80144</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>17844.78653</v>
+        <v>19463.70303</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>17513.40364</v>
+        <v>21298.62657</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>18719.50625</v>
+        <v>16614.83724</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>56820.61927999999</v>
+        <v>56102.36252</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>62197.76543000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>70107.69807</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>46066.346</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1503.53854</v>
+        <v>1449.02922</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1574.88233</v>
+        <v>1479.6292</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2458.11164</v>
+        <v>2982.67595</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>2300.06794</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1391.92234</v>
+        <v>1288.22876</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>128.29466</v>
+        <v>51.54277</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2038.24604</v>
+        <v>2048.68299</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2163.75334</v>
+        <v>2258.34359</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3060.49243</v>
+        <v>3650.49243</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2020.24138</v>
+        <v>2058.74984</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>849.7153499999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>897.87332</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>28941.52</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1847.85918</v>
+        <v>2230.41927</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2543.217889999999</v>
+        <v>2455.771</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1162.03657</v>
+        <v>922.4435100000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1011.31214</v>
+        <v>1391.95843</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1836.4258</v>
+        <v>1638.77787</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4245.06461</v>
+        <v>6605.27098</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2131.33426</v>
+        <v>2144.16611</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3312.40094</v>
+        <v>1833.45874</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>5360.951940000001</v>
+        <v>5560.74088</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2590.48818</v>
+        <v>2550.96284</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2502.10619</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2581.02558</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3381.099</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>379.70086</v>
+        <v>357.97688</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>238.77665</v>
+        <v>236.11868</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>223.08412</v>
+        <v>260.94942</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>736.3490400000001</v>
+        <v>736.49447</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>211.32715</v>
+        <v>203.03304</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>427.44935</v>
+        <v>420.74355</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1026.06209</v>
+        <v>1028.13473</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2234.33606</v>
+        <v>2207.498579999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1438.93134</v>
+        <v>1289.74199</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1152.44528</v>
+        <v>1029.1746</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2722.20072</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2455.21105</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2462.58</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>77345.1087</v>
+        <v>61786.71457</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>62300.11245</v>
+        <v>73105.54596999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>68453.03564</v>
+        <v>72804.59323</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>51884.65745000001</v>
+        <v>55034.75234000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>106704.1887</v>
+        <v>119132.59849</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>101556.30626</v>
+        <v>123236.47598</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>191592.78592</v>
+        <v>252562.51359</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>175855.75576</v>
+        <v>213895.83776</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>189929.05055</v>
+        <v>210217.04364</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1246614.33329</v>
+        <v>1291360.78451</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>716571.90538</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>737413.6018699999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1297187.597</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>556.4764300000001</v>
@@ -2054,31 +2100,36 @@
         <v>123.96514</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>206.93969</v>
+        <v>200.99105</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>411.18761</v>
+        <v>310.65087</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>342.58734</v>
+        <v>217.55887</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>431.70122</v>
+        <v>396.07419</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1086.27796</v>
+        <v>969.04449</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>2473.07176</v>
+        <v>2212.52767</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>2025.12489</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1600.309</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.00036</v>
@@ -2093,7 +2144,7 @@
         <v>129.77378</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>247.38794</v>
+        <v>41.29208999999999</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>24.51247</v>
+        <v>53.66193</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>122.48255</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>12669.67956</v>
+        <v>15285.91178</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>24247.3509</v>
+        <v>24504.16626</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>10957.62124</v>
+        <v>10508.74325</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>14128.97127</v>
+        <v>14077.89531</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>17709.59335</v>
+        <v>21091.46635</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>30521.15694</v>
+        <v>29095.03708</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>34679.32564</v>
+        <v>42544.36564</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>30866.76677</v>
+        <v>35244.64146</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>43020.29806</v>
+        <v>38183.11706</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>71424.41381999999</v>
+        <v>71126.02031000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>97102.23673999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>96192.48586</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>102732.106</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>82919.13515</v>
+        <v>80003.03611</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>82322.16769</v>
+        <v>84565.08377999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>100388.03066</v>
+        <v>99755.70367</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>68184.88145</v>
+        <v>73342.74051</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>151055.12962</v>
+        <v>183349.0604</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>123553.76575</v>
+        <v>141601.34972</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>248411.09087</v>
+        <v>1307904.19037</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>227017.37493</v>
+        <v>275953.82797</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>259555.86407</v>
+        <v>280946.45695</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1403035.62538</v>
+        <v>1511032.64811</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>802089.10325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>842601.8934600001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1359215.412</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>869.31592</v>
+        <v>733.3003400000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>477.20434</v>
+        <v>633.1238300000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1466.15379</v>
+        <v>1499.30537</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2093.47173</v>
+        <v>2330.7329</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1570.53367</v>
+        <v>1968.7133</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2382.63307</v>
+        <v>2570.85878</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1898.60684</v>
+        <v>2514.18028</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4705.42393</v>
+        <v>5152.467570000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5001.38674</v>
+        <v>5735.073179999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>8520.07583</v>
+        <v>12729.31832</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7254.63708</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7443.02719</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>18375.772</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>14082.20461</v>
+        <v>16020.30708</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6775.178930000001</v>
+        <v>6365.20404</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4195.2161</v>
+        <v>4231.20558</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>8783.655510000001</v>
+        <v>11437.94416</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>9857.238499999999</v>
+        <v>9469.217919999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>8237.789569999999</v>
+        <v>7229.998539999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>16164.44449</v>
+        <v>21911.92089</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>7444.51797</v>
+        <v>7836.83768</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2857.7884</v>
+        <v>2767.57005</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>15127.94345</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>12727.56453</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>15042.33336</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>17738.658</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>273.35577</v>
@@ -2282,13 +2358,13 @@
         <v>7.58599</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>13.07861</v>
+        <v>17.56838</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>32.9016</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>108.60094</v>
+        <v>110.09147</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>20.19474</v>
@@ -2303,55 +2379,65 @@
         <v>64.94632</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>451.80043</v>
+        <v>412.88604</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>18124.28735</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>66.863</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>65540.37686</v>
+        <v>60105.44351</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>61762.69916</v>
+        <v>68698.37491</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>87859.91156000001</v>
+        <v>88307.59147</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>51549.44446</v>
+        <v>54050.72384</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>134661.81541</v>
+        <v>166148.19755</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>106009.39262</v>
+        <v>126078.41652</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>216423.47947</v>
+        <v>372626.1030700001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>201124.14046</v>
+        <v>248357.97629</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>242325.13592</v>
+        <v>264142.03948</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1361178.11888</v>
+        <v>1463593.24781</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>723655.3078299999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>763385.72883</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1298941.278</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>50.37207</v>
@@ -2369,28 +2455,33 @@
         <v>205.29897</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>277.1352199999999</v>
+        <v>144.19913</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1087.68033</v>
+        <v>951.4712</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>548.04301</v>
+        <v>502.29199</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1110.7228</v>
+        <v>995.40849</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2480.12334</v>
+        <v>2429.36168</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>1692.32077</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1963.47</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>66.79987</v>
@@ -2405,7 +2496,7 @@
         <v>97.73652</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>17.43363</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>3.29667</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.839</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2036.71005</v>
+        <v>2753.45747</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>12845.29141</v>
+        <v>8406.587150000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6422.33812</v>
+        <v>5268.70039</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5542.13632</v>
+        <v>5307.166180000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4634.2085</v>
+        <v>5447.54119</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>6623.32386</v>
+        <v>5554.385340000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>12788.15014</v>
+        <v>909851.7853300001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>13118.71095</v>
+        <v>14027.71583</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>8195.883889999999</v>
+        <v>7241.41943</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>15277.56345</v>
+        <v>16739.89081</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>38634.14668999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>36913.35696</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>22129.371</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>87425.72546</v>
+        <v>71607.58340999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>55763.69426</v>
+        <v>57292.43101000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>71470.56005</v>
+        <v>71117.73646000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>75879.14285999999</v>
+        <v>78400.99867000002</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>81799.92421</v>
+        <v>102527.89999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>100063.06869</v>
+        <v>110482.13165</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>130300.32827</v>
+        <v>182101.41006</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>125748.11764</v>
+        <v>155451.56312</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>153774.92837</v>
+        <v>156279.07403</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>351961.73657</v>
+        <v>357757.52042</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>377456.3625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>374683.2629500001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>444384.101</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>81512.64928999999</v>
+        <v>63143.26552</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>51012.97777</v>
+        <v>51912.77537999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>64904.35441</v>
+        <v>65629.73069</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>72269.83867</v>
+        <v>75148.8967</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>73411.34901000001</v>
+        <v>87159.77673</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>93685.00725</v>
+        <v>102817.96091</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>124649.60602</v>
+        <v>174936.91673</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>117726.82505</v>
+        <v>147070.54717</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>142894.97068</v>
+        <v>145471.02861</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>328378.27834</v>
+        <v>334174.06219</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>354342.68626</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>346406.58488</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>394980.63</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>5913.07617</v>
+        <v>8464.31789</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>4750.71649</v>
+        <v>5379.65563</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>6566.205640000001</v>
+        <v>5488.005770000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3609.30419</v>
+        <v>3252.10197</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>8388.575199999999</v>
+        <v>15368.12326</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>6378.061439999999</v>
+        <v>7664.17074</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5650.72225</v>
+        <v>7164.49333</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>8021.29259</v>
+        <v>8381.015950000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>10879.95769</v>
+        <v>10808.04542</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>23583.45823</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>23113.67624</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>28276.67807</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>49403.471</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>26368.5688</v>
+        <v>49159.90285</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>152031.43682</v>
+        <v>166072.48939</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>215767.35053</v>
+        <v>235112.07745</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>209936.88886</v>
+        <v>190053.8311</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>286772.33958</v>
+        <v>253817.68084</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>382504.80994</v>
+        <v>407272.06092</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>405824.95593</v>
+        <v>-615691.3655</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>377112.92646</v>
+        <v>366069.69074</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>526239.39414</v>
+        <v>537488.9484</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1096459.38219</v>
+        <v>1106905.04934</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1230444.19221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1206160.93384</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1753151.486</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>26486.87959</v>
+        <v>23448.90631</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>33143.81261</v>
+        <v>31815.54762</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>28410.17545</v>
+        <v>27556.70348</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>30307.04134</v>
+        <v>29307.46053</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>56646.74370000001</v>
+        <v>58236.21185</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>43605.32882</v>
+        <v>51757.52843999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>40250.39069</v>
+        <v>48345.63797</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>110133.07483</v>
+        <v>152059.11692</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>77909.25847</v>
+        <v>58858.77048</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>95589.00623</v>
+        <v>98584.31045</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>119589.27018</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>121297.95588</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>128849.681</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>359.71151</v>
+        <v>367.23042</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>391.6966</v>
+        <v>492.22405</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>254.04714</v>
+        <v>259.88407</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>334.02377</v>
+        <v>362.73727</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>387.44636</v>
+        <v>404.01553</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>538.2873000000001</v>
+        <v>623.56278</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>399.6193500000001</v>
+        <v>369.99773</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>173.80095</v>
+        <v>709.04869</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>502.04199</v>
+        <v>420.4457</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>762.72039</v>
+        <v>767.9490800000001</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>1167.18039</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3828.911</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>26127.16808</v>
+        <v>23081.67589</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>32752.11601</v>
+        <v>31323.32357</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>28156.12831</v>
+        <v>27296.81941</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>29973.01757</v>
+        <v>28944.72326</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>56259.29734</v>
+        <v>57832.19632</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>43067.04152</v>
+        <v>51133.96565999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>39850.77134000001</v>
+        <v>47975.64023999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>109959.27388</v>
+        <v>151350.06823</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>77407.21648</v>
+        <v>58438.32478</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>94826.28584</v>
+        <v>97816.36137</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>118422.08979</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>120130.77549</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>125020.77</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>25780.39653</v>
+        <v>20573.88139</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>20333.35802</v>
+        <v>18232.32396</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>137088.86314</v>
+        <v>139363.14789</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>28471.99996</v>
+        <v>26571.00436</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>28886.69125</v>
+        <v>36744.56128</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>80620.71721</v>
+        <v>79082.58755</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>31691.47205</v>
+        <v>37760.29965</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>109044.41083</v>
+        <v>110271.18785</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>54057.37499</v>
+        <v>40077.48278</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>220987.58775</v>
+        <v>165971.78529</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>116307.94693</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>113583.50307</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>126787.061</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4924.40997</v>
+        <v>4358.80908</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2053.65007</v>
+        <v>1454.47793</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>385.8411</v>
+        <v>862.10869</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1631.06548</v>
+        <v>1630.83793</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1727.19317</v>
+        <v>1038.00812</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>5960.318189999999</v>
+        <v>5411.84229</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1956.65741</v>
+        <v>9805.80083</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1934.10571</v>
+        <v>6604.55126</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2644.07166</v>
+        <v>1150.2896</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>12812.62499</v>
+        <v>8423.560120000002</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>19704.37019</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>19697.88716</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>18396.37</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3933.87724</v>
+        <v>1511.81617</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1481.06444</v>
+        <v>1088.37726</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2317.35969</v>
+        <v>2268.846329999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1537.76785</v>
+        <v>1511.14636</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1500.82529</v>
+        <v>1718.33408</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2717.18737</v>
+        <v>2649.05134</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1562.11402</v>
+        <v>1194.54685</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1313.33046</v>
+        <v>2286.84284</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>989.77325</v>
+        <v>984.85284</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3668.86568</v>
+        <v>3695.47233</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>22711.41779</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>22699.18995</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4066.421</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>16922.10932</v>
+        <v>14703.25614</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>16798.64351</v>
+        <v>15689.46877</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>134385.66235</v>
+        <v>136232.19287</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>25303.16663</v>
+        <v>23429.02007</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>25658.67279</v>
+        <v>33988.21908</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>71943.21165000001</v>
+        <v>71021.69392000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>28172.70062</v>
+        <v>26759.95197</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>105796.97466</v>
+        <v>101379.79375</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>50423.53008</v>
+        <v>37942.34034</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>204506.09708</v>
+        <v>153852.75284</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>73892.15895</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>71186.42595999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>104324.27</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>27075.05186</v>
+        <v>52034.92777</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>164841.89141</v>
+        <v>179655.71305</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>107088.66284</v>
+        <v>123305.63304</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>211771.93024</v>
+        <v>192790.28727</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>314532.39203</v>
+        <v>275309.33141</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>345489.42155</v>
+        <v>379947.0018099999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>414383.87457</v>
+        <v>-605106.02718</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>378201.59046</v>
+        <v>407857.61981</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>550091.2776199999</v>
+        <v>556270.2361</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>971060.8006699999</v>
+        <v>1039517.5745</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1233725.51546</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1213875.38665</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1755214.106</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>21741.3457</v>
+        <v>20759.61955</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>33002.58184</v>
+        <v>33987.75592</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>44776.21924</v>
+        <v>45625.4943</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>44337.03208</v>
+        <v>43420.89408</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>64623.95984</v>
+        <v>66346.02756</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>75416.34978</v>
+        <v>79224.18046999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>82959.04251</v>
+        <v>86954.65565999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>86937.37932000001</v>
+        <v>92042.53486</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>100502.13834</v>
+        <v>101868.12075</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>185430.23097</v>
+        <v>188179.91754</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>204707.40796</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>209790.32218</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>293674.628</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>5333.706160000002</v>
+        <v>31275.30822</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>131839.30957</v>
+        <v>145667.95713</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>62312.44359999999</v>
+        <v>77680.13873999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>167434.89816</v>
+        <v>149369.39319</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>249908.43219</v>
+        <v>208963.30385</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>270073.07177</v>
+        <v>300722.82134</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>331424.83206</v>
+        <v>-692060.68284</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>291264.21114</v>
+        <v>315815.08495</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>449589.1392799999</v>
+        <v>454402.11535</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>785630.5697</v>
+        <v>851337.6569600001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1029018.1075</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1004085.06447</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1461539.478</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>471</v>
+        <v>378</v>
       </c>
       <c r="L59" s="35" t="n">
+        <v>329</v>
+      </c>
+      <c r="M59" s="35" t="n">
         <v>349</v>
       </c>
-      <c r="M59" s="35" t="n">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>